--- a/InputData/indst/EoP/Elasticities of Production.xlsx
+++ b/InputData/indst/EoP/Elasticities of Production.xlsx
@@ -8,16 +8,15 @@
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
-    <sheet name="Details regarding BAU" sheetId="29" r:id="rId2"/>
-    <sheet name="EoP-EoPwFC" sheetId="13" r:id="rId3"/>
-    <sheet name="EoP-PCiPpUCTdtNI" sheetId="14" r:id="rId4"/>
+    <sheet name="EoP-EoPwFC" sheetId="13" r:id="rId2"/>
+    <sheet name="EoP-PCiPpUCTdtNI" sheetId="14" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="45">
   <si>
     <t>mining</t>
   </si>
@@ -76,75 +75,9 @@
     <t>agriculture</t>
   </si>
   <si>
-    <t>Coal for cement and NGPS</t>
-  </si>
-  <si>
-    <t>Aldy and Pizer note that the chemicals industry includes petroleum refining.</t>
-  </si>
-  <si>
-    <t>Oil extraction is not covered under these manufacturing results (or under manufacturing in general).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oil and gas extraction are considered to come under "mining," or extractive industries. </t>
-  </si>
-  <si>
-    <t>Cement</t>
-  </si>
-  <si>
-    <t>NGPS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maximilian Auffhammer and Edward Rubin </t>
-  </si>
-  <si>
-    <t>Natural Gas Price Elasticities and Optimal Cost Recovery Under Consumer Heterogeneity: Evidence from 300 Million Natural Gas Bills January 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EI @ Haas WP 287 </t>
-  </si>
-  <si>
-    <t>https://ei.haas.berkeley.edu/research/papers/WP287.pdf</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sources </t>
   </si>
   <si>
-    <t>Petroluem Diesel</t>
-  </si>
-  <si>
-    <t>U.S. EPA and NHTSA</t>
-  </si>
-  <si>
-    <t>Greenhouse Gas Emissions Standards and Fuel Efficiency Standards for Medium- and Heavy-Duty Engines and Vehicles (Final Rule)</t>
-  </si>
-  <si>
-    <t>http://www.gpo.gov/fdsys/pkg/FR-2011-09-15/pdf/2011-20740.pdf</t>
-  </si>
-  <si>
-    <t>Page 57329, first column, last sentence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In practice, a firm may respond to a carbon price – expecting it to be permanent – differently than to an idiosyncratic energy price shock. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">we estimate output and competitiveness effects in an empirical framework that focuses on short-run responses to a change in energy prices. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">We note, however, that the volatility in allowance market prices, such as in the EU Emission Trading Scheme for carbon dioxide and other cap-and-trade programs (Aldy and Viscusi 2014), </t>
-  </si>
-  <si>
-    <t>Aldy and Pizer comment on their's being short run elasticities as follows:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Like much of the literature on estimating energy price elasticities, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">may undermine firms’ abilities to predict and plan for carbon prices. In this case, a short-run response through our empirical approach </t>
-  </si>
-  <si>
-    <t>may provide a plausible simulation of firm behavior under climate change regulation characterized by volatile carbon prices."</t>
-  </si>
-  <si>
     <t>California’s cap-and-trade market to 2030: A preliminary analysis. Energy Institute at Haas working paper no. 281.</t>
   </si>
   <si>
@@ -160,55 +93,64 @@
     <t>Main Source</t>
   </si>
   <si>
-    <t xml:space="preserve">For BAU Carbon Price Application </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cement </t>
-  </si>
-  <si>
-    <t>The California model takes different approaches for application of BAU and additional carbon price.</t>
-  </si>
-  <si>
-    <t>For BAU, different fuel elasticities are applied, with causal effects shown in the BAU industrial fuel use folder.</t>
-  </si>
-  <si>
-    <t>For additional carbon price effects, the elasticity of natural gas use with respect to energy price is the only effect included.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This is done to increase accuracy. </t>
-  </si>
-  <si>
     <t>The elasticity of natural gas use with respect to its price is estimated as 0.5.</t>
   </si>
   <si>
-    <t>This value is drawn from the first reference cited, Borenstein et al.</t>
-  </si>
-  <si>
-    <t>elasticity is in the range of -0.4 to -0.6. These ranges of elasticities form the high</t>
-  </si>
-  <si>
-    <t>and low cases that are the support of the distribution from which each price-</t>
-  </si>
-  <si>
-    <t>Their study uses a range of [04.-0.6], which we assume equals 0.5 with sufficiently large sample sizes.</t>
-  </si>
-  <si>
-    <t>"For natural gas, we assume the demand</t>
-  </si>
-  <si>
-    <t>responsive abatement quantity is drawn."</t>
-  </si>
-  <si>
-    <t>Quote from page page 17</t>
-  </si>
-  <si>
-    <t>But the coal use in California is entirely within refining and not in extraction.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Therefore, apply the elasticity without adjustment for inclusion of oil extraction. </t>
-  </si>
-  <si>
-    <t>The elasticity with respect to coal use and petroleum disel use is discussed at the "Details regarding BAU" tab.</t>
+    <t>The mid value of the range of [04.-0.6] in Borenstein et al. 2017, page 17:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The EPS model’s cause-effect mechanism for the industry carbon price response is determined by changes in production, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">which affect all fuels in equal proportion.  Therefore, changes due to the price elasticity of demand for natural gas also affect other energy use.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is necessary to retain consistency with the web application.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The elasticity of industry energy demand for refinery and process gas may or may not be similar.  </t>
+  </si>
+  <si>
+    <t>We were unable to identify separate values for refinery and process gas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">electricity demand with respect to price used by Borenstein et al. (2017) is correct. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The industry sector price elasticity of electricity demand response may be overrepresented if the -0.2 to -0.4 value for elasticity of </t>
+  </si>
+  <si>
+    <t>Aldy, Joseph and William Pizer. (2015). The Competitiveness Impacts of Climate Change Mitigation Policies. Harvard Project on Climate Agreements Discussion Paper 15-73.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cement and concrete is the largest source of coal use in the state. </t>
+  </si>
+  <si>
+    <t>Aldy and Pizer (2015)) find a value of -.42 for the price elastacity ofenergy use in cement production.</t>
+  </si>
+  <si>
+    <t>"For natural gas, we assume the demand elasticity is in the range of -0.4 to -0.6. These ranges of elasticities form the high</t>
+  </si>
+  <si>
+    <t>and low cases that are the support of the distribution from which each price-responsive abatement quantity is drawn."</t>
+  </si>
+  <si>
+    <t>The Borenstein et al. (2017) research has been influential, a factor encouraging its use.</t>
+  </si>
+  <si>
+    <t>However, in choosing to do so we must accept a less than ideal level of elasticity of demand for other fuels.</t>
+  </si>
+  <si>
+    <t>The reason for this is as follows:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">California's cap-and-trade program covers end of pipe emissions from combustion.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The majority of these related to nonfuel production are assumed to occur outside of California and </t>
+  </si>
+  <si>
+    <t>unaffected by a California carbon price.</t>
   </si>
 </sst>
 </file>
@@ -317,7 +259,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -336,19 +278,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
@@ -370,47 +303,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>600074</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>95249</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="600074" y="3790949"/>
-          <a:ext cx="4752976" cy="2609851"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -700,10 +592,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E83"/>
+  <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -724,22 +616,22 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E5" s="21"/>
+        <v>21</v>
+      </c>
+      <c r="E5" s="18"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -749,297 +641,162 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="12"/>
+    </row>
+    <row r="13" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="18"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="18" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="B14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="B16" s="3">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="B17" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="B18" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="B20" s="18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="B21" s="19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="B22" s="19">
-        <v>2011</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="B23" s="19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="B24" s="20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="B25" s="19" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="A27" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B27" s="12"/>
-    </row>
-    <row r="28" spans="1:2" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="22" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="18"/>
-    </row>
-    <row r="30" spans="1:2" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="22" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="18"/>
-    </row>
-    <row r="32" spans="1:2" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="22" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="22" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="18"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="C35">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="22" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="14" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="4"/>
-    </row>
-    <row r="70" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="71" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="72" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="18"/>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="3"/>
-    </row>
-    <row r="78" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A78" s="4"/>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="18"/>
-      <c r="B80" s="17"/>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" s="3"/>
+    <row r="41" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="1:1" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="17"/>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="3"/>
+    </row>
+    <row r="49" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="4"/>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="17"/>
+      <c r="B51" s="16"/>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B18" r:id="rId1"/>
-    <hyperlink ref="B24" r:id="rId2"/>
-    <hyperlink ref="B9" r:id="rId3"/>
+    <hyperlink ref="B9" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId4"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="14.45" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9">
-        <v>-0.42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10">
-        <v>-0.35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>41</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
@@ -1047,7 +804,7 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1085,109 +842,104 @@
       <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="16">
-        <v>0</v>
-      </c>
-      <c r="C2" s="16">
-        <v>0</v>
-      </c>
-      <c r="D2" s="16">
-        <f>About!$C$35</f>
-        <v>0.5</v>
-      </c>
-      <c r="E2" s="16">
-        <v>0</v>
-      </c>
-      <c r="F2" s="16">
-        <f>'Details regarding BAU'!$G$41</f>
-        <v>0</v>
-      </c>
-      <c r="G2" s="16">
-        <v>0</v>
-      </c>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
+      <c r="B2" s="15">
+        <v>0</v>
+      </c>
+      <c r="C2" s="15">
+        <v>0</v>
+      </c>
+      <c r="D2" s="15">
+        <f>About!$C$14</f>
+        <v>-0.5</v>
+      </c>
+      <c r="E2" s="15">
+        <v>0</v>
+      </c>
+      <c r="F2" s="15">
+        <v>0</v>
+      </c>
+      <c r="G2" s="15">
+        <v>0</v>
+      </c>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="16">
-        <v>0</v>
-      </c>
-      <c r="C3" s="16">
-        <v>0</v>
-      </c>
-      <c r="D3" s="16">
-        <f>About!$C$35</f>
-        <v>0.5</v>
-      </c>
-      <c r="E3" s="6">
-        <f>'Details regarding BAU'!$G$37</f>
-        <v>0</v>
-      </c>
-      <c r="F3" s="16">
-        <f>'Details regarding BAU'!$G$41</f>
-        <v>0</v>
-      </c>
-      <c r="G3" s="16">
-        <v>0</v>
-      </c>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
+      <c r="B3" s="15">
+        <v>0</v>
+      </c>
+      <c r="C3" s="15">
+        <v>0</v>
+      </c>
+      <c r="D3" s="15">
+        <f>About!$C$14</f>
+        <v>-0.5</v>
+      </c>
+      <c r="E3" s="15">
+        <v>0</v>
+      </c>
+      <c r="F3" s="15">
+        <v>0</v>
+      </c>
+      <c r="G3" s="15">
+        <v>0</v>
+      </c>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="16">
-        <v>0</v>
-      </c>
-      <c r="C4" s="16">
-        <v>0</v>
-      </c>
-      <c r="D4" s="16">
-        <f>About!$C$35</f>
-        <v>0.5</v>
-      </c>
-      <c r="E4" s="16">
-        <v>0</v>
-      </c>
-      <c r="F4" s="16">
-        <f>'Details regarding BAU'!$G$41</f>
-        <v>0</v>
-      </c>
-      <c r="G4" s="16">
-        <v>0</v>
-      </c>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
+      <c r="B4" s="15">
+        <v>0</v>
+      </c>
+      <c r="C4" s="15">
+        <v>0</v>
+      </c>
+      <c r="D4" s="15">
+        <f>About!$C$14</f>
+        <v>-0.5</v>
+      </c>
+      <c r="E4" s="15">
+        <v>0</v>
+      </c>
+      <c r="F4" s="15">
+        <v>0</v>
+      </c>
+      <c r="G4" s="15">
+        <v>0</v>
+      </c>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="16">
-        <v>0</v>
-      </c>
-      <c r="C5" s="16">
-        <v>0</v>
-      </c>
-      <c r="D5" s="16">
-        <f>About!$C$35</f>
-        <v>0.5</v>
-      </c>
-      <c r="E5" s="6">
-        <v>0</v>
-      </c>
-      <c r="F5" s="16">
-        <f>'Details regarding BAU'!$G$41</f>
-        <v>0</v>
-      </c>
-      <c r="G5" s="16">
+      <c r="B5" s="15">
+        <v>0</v>
+      </c>
+      <c r="C5" s="15">
+        <v>0</v>
+      </c>
+      <c r="D5" s="15">
+        <f>About!$C$14</f>
+        <v>-0.5</v>
+      </c>
+      <c r="E5" s="15">
+        <v>0</v>
+      </c>
+      <c r="F5" s="15">
+        <v>0</v>
+      </c>
+      <c r="G5" s="15">
         <v>0</v>
       </c>
     </row>
@@ -1195,24 +947,23 @@
       <c r="A6" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="16">
-        <v>0</v>
-      </c>
-      <c r="C6" s="16">
-        <v>0</v>
-      </c>
-      <c r="D6" s="16">
-        <f>About!$C$35</f>
-        <v>0.5</v>
-      </c>
-      <c r="E6" s="6">
-        <v>0</v>
-      </c>
-      <c r="F6" s="16">
-        <f>'Details regarding BAU'!$G$41</f>
-        <v>0</v>
-      </c>
-      <c r="G6" s="16">
+      <c r="B6" s="15">
+        <v>0</v>
+      </c>
+      <c r="C6" s="15">
+        <v>0</v>
+      </c>
+      <c r="D6" s="15">
+        <f>About!$C$14</f>
+        <v>-0.5</v>
+      </c>
+      <c r="E6" s="15">
+        <v>0</v>
+      </c>
+      <c r="F6" s="15">
+        <v>0</v>
+      </c>
+      <c r="G6" s="15">
         <v>0</v>
       </c>
     </row>
@@ -1220,24 +971,23 @@
       <c r="A7" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="16">
-        <v>0</v>
-      </c>
-      <c r="C7" s="16">
-        <v>0</v>
-      </c>
-      <c r="D7" s="16">
-        <f>About!$C$35</f>
-        <v>0.5</v>
-      </c>
-      <c r="E7" s="6">
-        <v>0</v>
-      </c>
-      <c r="F7" s="16">
-        <f>'Details regarding BAU'!$G$41</f>
-        <v>0</v>
-      </c>
-      <c r="G7" s="16">
+      <c r="B7" s="15">
+        <v>0</v>
+      </c>
+      <c r="C7" s="15">
+        <v>0</v>
+      </c>
+      <c r="D7" s="15">
+        <f>About!$C$14</f>
+        <v>-0.5</v>
+      </c>
+      <c r="E7" s="15">
+        <v>0</v>
+      </c>
+      <c r="F7" s="15">
+        <v>0</v>
+      </c>
+      <c r="G7" s="15">
         <v>0</v>
       </c>
     </row>
@@ -1248,21 +998,20 @@
       <c r="B8" s="6">
         <v>0</v>
       </c>
-      <c r="C8" s="16">
-        <v>0</v>
-      </c>
-      <c r="D8" s="16">
-        <f>About!$C$35</f>
-        <v>0.5</v>
+      <c r="C8" s="15">
+        <v>0</v>
+      </c>
+      <c r="D8" s="15">
+        <f>About!$C$14</f>
+        <v>-0.5</v>
       </c>
       <c r="E8" s="6">
         <v>0</v>
       </c>
-      <c r="F8" s="16">
-        <f>'Details regarding BAU'!$G$41</f>
-        <v>0</v>
-      </c>
-      <c r="G8" s="16">
+      <c r="F8" s="6">
+        <v>0</v>
+      </c>
+      <c r="G8" s="6">
         <v>0</v>
       </c>
     </row>
@@ -1273,21 +1022,20 @@
       <c r="B9" s="6">
         <v>0</v>
       </c>
-      <c r="C9" s="16">
-        <v>0</v>
-      </c>
-      <c r="D9" s="16">
-        <f>About!$C$35</f>
-        <v>0.5</v>
+      <c r="C9" s="15">
+        <v>0</v>
+      </c>
+      <c r="D9" s="15">
+        <f>About!$C$14</f>
+        <v>-0.5</v>
       </c>
       <c r="E9" s="6">
         <v>0</v>
       </c>
-      <c r="F9" s="16">
-        <f>'Details regarding BAU'!$G$41</f>
-        <v>0</v>
-      </c>
-      <c r="G9" s="16">
+      <c r="F9" s="6">
+        <v>0</v>
+      </c>
+      <c r="G9" s="6">
         <v>0</v>
       </c>
     </row>
@@ -1321,7 +1069,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
